--- a/dtpu_configurations/only_integer16/30mhz/mxu_16x16/timing.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_16x16/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>5.372132778167725</v>
+        <v>4.194298267364502</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01755484566092491</v>
+        <v>0.01474942360073328</v>
       </c>
     </row>
   </sheetData>
